--- a/Test Cases Trello/Trello_test_cases.xlsx
+++ b/Test Cases Trello/Trello_test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kniat\Desktop\chorzow_listopad_2024\Test Cases Trello\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PODMer\tester_chorzow_11_24\Test Cases Trello\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E9E9E-A237-4395-8DB2-F0011E565DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270E5B2-9E5F-49F9-A90D-5549A39A358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logowanie i rejestracja" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>ID Testu</t>
   </si>
@@ -93,9 +93,6 @@
     <t>TC201</t>
   </si>
   <si>
-    <t>Dodawanie komentarza</t>
-  </si>
-  <si>
     <t>Do wykonania</t>
   </si>
   <si>
@@ -211,6 +208,42 @@
   </si>
   <si>
     <t>TC212</t>
+  </si>
+  <si>
+    <t>Dodawanie komentarzy do kart</t>
+  </si>
+  <si>
+    <t>Test weryfikuje możliwość dodawania komentarzy</t>
+  </si>
+  <si>
+    <t>Komentarz zostaje dodany i jest widoczny w sekcji komentarzy karty. Wszyscy przypisani użytkownicy widzą komentarz.</t>
+  </si>
+  <si>
+    <t>1. Otwórz tablicę i kartę, do której chcesz dodać komentarz. 2. Kliknij w sekcję "Komentarze". 3. Wpisz tekst komentarza. 4. Kliknij "Dodaj komentarz".</t>
+  </si>
+  <si>
+    <t>Dodawanie załączników do kart</t>
+  </si>
+  <si>
+    <t>Test sprawdza możliwość dodawania załączników do kart</t>
+  </si>
+  <si>
+    <t>1. Otwórz tablicę i kartę, do której chcesz dodać załącznik. 2. Kliknij "Dodaj załącznik". 3. Wybierz plik z urządzenia (np. PDF, obraz). 4. Zapisz załącznik na karcie.</t>
+  </si>
+  <si>
+    <t>Załącznik zostaje dodany i widoczny dla wszystkich osób przypisanych do karty. Użytkownik może go pobrać lub wyświetlić.</t>
+  </si>
+  <si>
+    <t>Widoczność załączników i komentarzy</t>
+  </si>
+  <si>
+    <t>Test sprawdza widoczność załączników i komentarzy</t>
+  </si>
+  <si>
+    <t>1. Zaloguj się na konto użytkownika i utwórz nową kartę na tablicy.  2. Dodaj komentarz do karty. 3. Dodaj załącznik do karty. 4. Przypisz inną osobę do karty . 5. Zaloguj się na konto przypisanej osoby. 6. Otwórz tę samą kartę na koncie przypisanej osoby. 7. Sprawdź, czy komentarz i załącznik są widoczne.</t>
+  </si>
+  <si>
+    <t>Komentarze i załączniki są widoczne i dostępne dla każdego użytkownika przypisanego do karty. Każdy przypisany użytkownik może je wyświetlić, pobrać lub odpowiadać na komentarze.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,9 +296,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -309,17 +343,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EBD0C3-F056-4639-BF42-51DFA25851DB}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EBD0C3-F056-4639-BF42-51DFA25851DB}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:H13" xr:uid="{03EBD0C3-F056-4639-BF42-51DFA25851DB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1A9B562D-FCC6-4C2D-81D4-D7E378E52332}" name="ID Testu" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A42CAAA3-D0BA-4CF5-BDB1-4D918BC8DC59}" name="Nazwa Testu" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5B852940-C34D-418A-B318-B9E26FCEC146}" name="Opis Testu" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DB69467C-8083-4A53-B425-F1A2D5AC293B}" name="Kroki Testowe" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9267C162-9910-4BD5-ACA0-0F0BE0BC17FC}" name="Oczekiwany Wynik" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3888ECBC-5CFF-40B7-A085-377799AA11A6}" name="Rzeczywisty Wynik" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AB254C0E-F93C-4B86-AD06-089579DFEB83}" name="Status" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{EEE32E60-7558-4A22-823D-F0BB9FDB93B8}" name="Komentarze" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1A9B562D-FCC6-4C2D-81D4-D7E378E52332}" name="ID Testu" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A42CAAA3-D0BA-4CF5-BDB1-4D918BC8DC59}" name="Nazwa Testu" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5B852940-C34D-418A-B318-B9E26FCEC146}" name="Opis Testu" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DB69467C-8083-4A53-B425-F1A2D5AC293B}" name="Kroki Testowe" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{9267C162-9910-4BD5-ACA0-0F0BE0BC17FC}" name="Oczekiwany Wynik" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{3888ECBC-5CFF-40B7-A085-377799AA11A6}" name="Rzeczywisty Wynik" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AB254C0E-F93C-4B86-AD06-089579DFEB83}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{EEE32E60-7558-4A22-823D-F0BB9FDB93B8}" name="Komentarze" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,19 +692,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="6" width="33.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -720,9 +754,9 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -734,9 +768,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -746,9 +780,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -758,9 +792,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -770,9 +804,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -782,9 +816,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -794,9 +828,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -806,9 +840,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -818,9 +852,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -830,9 +864,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -842,9 +876,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -868,18 +902,18 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="6" width="33.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -921,59 +955,59 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -987,21 +1021,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2FC7A3-7274-47B8-BBBC-AC4CBBA5B9E9}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="6" width="33.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" customWidth="1"/>
+    <col min="5" max="5" width="112.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,76 +1065,118 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1115,15 +1195,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="6" width="33.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,17 +1229,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1181,15 +1261,15 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="6" width="33.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,12 +1295,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>

--- a/Test Cases Trello/Trello_test_cases.xlsx
+++ b/Test Cases Trello/Trello_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PODMer\tester_chorzow_11_24\Test Cases Trello\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270E5B2-9E5F-49F9-A90D-5549A39A358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CF244-8461-4666-AE92-BDFFD4C42EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>ID Testu</t>
   </si>
@@ -211,39 +211,6 @@
   </si>
   <si>
     <t>Dodawanie komentarzy do kart</t>
-  </si>
-  <si>
-    <t>Test weryfikuje możliwość dodawania komentarzy</t>
-  </si>
-  <si>
-    <t>Komentarz zostaje dodany i jest widoczny w sekcji komentarzy karty. Wszyscy przypisani użytkownicy widzą komentarz.</t>
-  </si>
-  <si>
-    <t>1. Otwórz tablicę i kartę, do której chcesz dodać komentarz. 2. Kliknij w sekcję "Komentarze". 3. Wpisz tekst komentarza. 4. Kliknij "Dodaj komentarz".</t>
-  </si>
-  <si>
-    <t>Dodawanie załączników do kart</t>
-  </si>
-  <si>
-    <t>Test sprawdza możliwość dodawania załączników do kart</t>
-  </si>
-  <si>
-    <t>1. Otwórz tablicę i kartę, do której chcesz dodać załącznik. 2. Kliknij "Dodaj załącznik". 3. Wybierz plik z urządzenia (np. PDF, obraz). 4. Zapisz załącznik na karcie.</t>
-  </si>
-  <si>
-    <t>Załącznik zostaje dodany i widoczny dla wszystkich osób przypisanych do karty. Użytkownik może go pobrać lub wyświetlić.</t>
-  </si>
-  <si>
-    <t>Widoczność załączników i komentarzy</t>
-  </si>
-  <si>
-    <t>Test sprawdza widoczność załączników i komentarzy</t>
-  </si>
-  <si>
-    <t>1. Zaloguj się na konto użytkownika i utwórz nową kartę na tablicy.  2. Dodaj komentarz do karty. 3. Dodaj załącznik do karty. 4. Przypisz inną osobę do karty . 5. Zaloguj się na konto przypisanej osoby. 6. Otwórz tę samą kartę na koncie przypisanej osoby. 7. Sprawdź, czy komentarz i załącznik są widoczne.</t>
-  </si>
-  <si>
-    <t>Komentarze i załączniki są widoczne i dostępne dla każdego użytkownika przypisanego do karty. Każdy przypisany użytkownik może je wyświetlić, pobrać lub odpowiadać na komentarze.</t>
   </si>
 </sst>
 </file>
@@ -285,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,7 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1021,10 +987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2FC7A3-7274-47B8-BBBC-AC4CBBA5B9E9}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,67 +1031,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1171,12 +1104,6 @@
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
